--- a/documentation/Risc.xlsx
+++ b/documentation/Risc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Check progress on Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure to delegate your tasks</t>
   </si>
   <si>
     <t xml:space="preserve">Nico R.</t>
@@ -191,7 +197,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,8 +310,23 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
